--- a/analysis/data/corr_pearson_1y.xlsx
+++ b/analysis/data/corr_pearson_1y.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\stei509\eu_migration_forecast\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DE173B-A1C5-4151-81A5-EDD79CCBA27B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5350C99F-D82B-4D9E-BAE8-1E08BD0A0C5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -625,12 +639,12 @@
   <dimension ref="A1:AW28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +790,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -916,7 +930,7 @@
         <v>0.55271418781983428</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1062,7 +1076,7 @@
         <v>-0.78543450803728376</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1208,7 +1222,7 @@
         <v>-0.87003923818186246</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1354,7 +1368,7 @@
         <v>-7.9158378999889742E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1491,7 +1505,7 @@
         <v>-0.25976747906758779</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1589,7 +1603,7 @@
         <v>0.80662827325304254</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1732,7 +1746,7 @@
         <v>0.75476909358646704</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1839,7 +1853,7 @@
         <v>0.37141969578041228</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1931,7 +1945,7 @@
         <v>0.16306909090872859</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -2008,7 +2022,7 @@
         <v>0.1207634299705054</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -2097,7 +2111,7 @@
         <v>0.93479028207852655</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -2198,7 +2212,7 @@
         <v>0.74363361514613813</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -2287,7 +2301,7 @@
         <v>-0.10698211164874701</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2427,7 +2441,7 @@
         <v>0.69410943661418456</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2573,7 +2587,7 @@
         <v>0.83409792228939483</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2662,7 +2676,7 @@
         <v>0.59186457014083949</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -2754,7 +2768,7 @@
         <v>0.71801828689609259</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -2819,7 +2833,7 @@
         <v>-0.12950153393317149</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -2872,7 +2886,7 @@
         <v>-0.15049778655546689</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -2964,7 +2978,7 @@
         <v>0.7402111279398208</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -3026,7 +3040,7 @@
         <v>0.87422020619464735</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -3076,7 +3090,7 @@
         <v>0.51684749318558454</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -3123,7 +3137,7 @@
         <v>-0.2137641481802223</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -3170,7 +3184,7 @@
         <v>-0.2221913441936213</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -3214,7 +3228,7 @@
         <v>-0.71038493203490105</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -3267,7 +3281,7 @@
         <v>-0.38593980927138649</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -3331,8 +3345,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AW28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0.62</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>-0.63</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
